--- a/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>-13,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,31</t>
+          <t>-24,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,8</t>
+          <t>-25,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>-13,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,92%</t>
+          <t>-26,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>-40,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>-38,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-40,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-23,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 23,2</t>
+          <t>-26,52; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 30,14</t>
+          <t>-40,27; -15,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 32,68</t>
+          <t>-33,98; -15,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 31,63</t>
+          <t>-33,64; -16,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 24,38</t>
+          <t>-27,83; 9,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 59,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 125,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,38; 106,92</t>
+          <t>-45,88; 6,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 101,25</t>
+          <t>-53,92; -24,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 66,88</t>
+          <t>-49,37; -24,99</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-49,79; -28,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-41,68; 17,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,38</t>
+          <t>-27,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>-22,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,01</t>
+          <t>-14,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>-17,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>-42,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>-28,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>-22,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-26,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-18,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,74; 30,58</t>
+          <t>-34,97; -17,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 24,87</t>
+          <t>-29,7; -14,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 21,42</t>
+          <t>-21,08; -8,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 22,59</t>
+          <t>-23,83; -11,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 24,96</t>
+          <t>-20,12; -3,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,34; 92,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,27; 123,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,5; 74,47</t>
+          <t>-51,28; -30,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,36; 77,17</t>
+          <t>-37,28; -20,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 76,9</t>
+          <t>-30,61; -13,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; -18,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; -5,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,08</t>
+          <t>-35,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>-20,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>-14,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>-14,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>-51,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>-20,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-14,32%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,11; 34,41</t>
+          <t>-43,55; -26,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 20,05</t>
+          <t>-29,14; -12,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 20,77</t>
+          <t>-21,73; -7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 20,67</t>
+          <t>-21,19; -7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 18,89</t>
+          <t>-18,34; -2,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 107,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,82; 91,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 80,81</t>
+          <t>-59,85; -40,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 84,57</t>
+          <t>-34,78; -16,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 57,47</t>
+          <t>-29,67; -11,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-28,34; -11,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-23,95; -3,44</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,04</t>
+          <t>-21,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>-10,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>-19,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,14</t>
+          <t>-15,28</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,21%</t>
+          <t>-34,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>-27,64%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-22,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,24; 27,76</t>
+          <t>-26,13; -16,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 21,93</t>
+          <t>-16,87; -3,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 21,38</t>
+          <t>-27,06; -11,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 21,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,65</t>
+          <t>-23,45; -6,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,56; 78,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,75; 95,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 72,41</t>
+          <t>-40,95; -27,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,19; 72,97</t>
+          <t>-22,53; -5,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,71; 58,0</t>
+          <t>-36,64; -17,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,25; -10,92</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-24,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-17,99</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-17,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-18,75</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-13,28</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-38,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-24,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-25,92%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-27,75%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-19,9%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; -20,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-22,09; -13,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-21,15; -13,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; -14,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; -7,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-43,05; -33,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; -19,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-30,46; -20,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,12; -22,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-26,35; -12,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
